--- a/data/income_statement/1digit/size/R_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/R_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>R-Arts, entertainment and recreation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>R-Arts, entertainment and recreation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>293005.60968</v>
+        <v>343073.0292</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>593472.2099200001</v>
+        <v>718716.6528699999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>692738.62691</v>
+        <v>833410.4750900001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>989288.41764</v>
+        <v>1099946.70917</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1337412.96153</v>
+        <v>1547588.89772</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>818160.42957</v>
+        <v>981825.4123500001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>998981.0772599999</v>
+        <v>1229714.83521</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1173930.27823</v>
+        <v>1306093.39391</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1478554.07092</v>
+        <v>1629036.24151</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2115737.21308</v>
+        <v>2264521.93591</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2386199.72964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2566178.02056</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1514504.932</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>269454.74202</v>
+        <v>299616.66468</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>562173.8412</v>
+        <v>670767.0727499999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>663494.3798900001</v>
+        <v>790492.0458099999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>936314.4719599999</v>
+        <v>1036680.43163</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1246246.60115</v>
+        <v>1470709.56185</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>766338.87635</v>
+        <v>934484.36654</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>957445.9145</v>
+        <v>1178741.74461</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1090010.4595</v>
+        <v>1230304.61747</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1396763.97977</v>
+        <v>1563170.0933</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2000014.42962</v>
+        <v>2138447.09147</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2272512.48868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2462525.76504</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1433591.232</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5138.82286</v>
+        <v>22457.24925</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7047.654649999999</v>
+        <v>20317.95252</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6820.484560000001</v>
+        <v>22684.51529</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>16749.26828</v>
+        <v>29417.4295</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>61993.26029</v>
+        <v>50914.8366</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19061.81382</v>
+        <v>17933.60743</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>19420.40137</v>
+        <v>23100.737</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>18990.15433</v>
+        <v>17458.91332</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>36402.38621</v>
+        <v>31522.16444</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>62803.55187999999</v>
+        <v>60633.63242</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>50814.22897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>36102.21245</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7890.305</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18412.0448</v>
+        <v>20999.11526999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>24250.71407</v>
+        <v>27631.6276</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>22423.76246</v>
+        <v>20233.91399</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>36224.6774</v>
+        <v>33848.84804</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>29173.10009</v>
+        <v>25964.49927</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>32759.7394</v>
+        <v>29407.43838</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>22114.76139</v>
+        <v>27872.3536</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>64929.6644</v>
+        <v>58329.86312</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>45387.70494</v>
+        <v>34343.98377000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>52919.23158</v>
+        <v>65441.21202000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>62873.01199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>67550.04307000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>73023.395</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2371.93845</v>
+        <v>1778.01625</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2438.37242</v>
+        <v>3235.954189999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4636.297489999999</v>
+        <v>4780.28831</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2937.43637</v>
+        <v>4009.53861</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5061.246990000001</v>
+        <v>6803.92551</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6777.5482</v>
+        <v>7877.190799999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8278.49639</v>
+        <v>7706.58795</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>8935.14329</v>
+        <v>11082.46259</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>17667.99669</v>
+        <v>17358.59365</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>12397.42543</v>
+        <v>14157.64091</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>15193.67532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19262.83322</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>51206.126</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2032.97291</v>
+        <v>1439.05071</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1864.20774</v>
+        <v>2661.68782</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3822.16285</v>
+        <v>3944.59492</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2216.65859</v>
+        <v>3719.78448</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4721.223570000001</v>
+        <v>5831.319800000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5481.279509999999</v>
+        <v>6482.78259</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7517.065009999999</v>
+        <v>6724.66519</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7346.049829999999</v>
+        <v>9492.821760000003</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>16690.08098</v>
+        <v>16622.00486</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>10871.81717</v>
+        <v>12667.97166</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11208.31023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16932.36874</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>32373.902</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>309.73407</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>353.9653500000001</v>
+        <v>354.06704</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>774.61513</v>
+        <v>796.1738800000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>590.2862</v>
+        <v>159.09682</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>253.3143</v>
+        <v>885.0465899999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1222.79766</v>
+        <v>1320.93718</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>665.2192699999999</v>
+        <v>886.5917900000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1381.56663</v>
+        <v>1381.85976</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>739.2970700000001</v>
+        <v>541.7286</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>939.92899</v>
+        <v>903.9899799999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3975.95609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2288.03695</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>18747.668</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>29.23147</v>
@@ -1232,244 +1173,274 @@
         <v>39.51951</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>130.49158</v>
+        <v>130.65731</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>86.70912</v>
+        <v>87.55911999999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>73.47103</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>96.21210999999998</v>
+        <v>95.33097000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>207.52683</v>
+        <v>207.78107</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>238.61864</v>
+        <v>194.86019</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>585.67927</v>
+        <v>585.6792699999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9.409000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>42.42753</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>84.556</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>290633.67123</v>
+        <v>341295.0129500001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>591033.8375</v>
+        <v>715480.6986799999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>688102.3294200001</v>
+        <v>828630.18678</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>986350.9812700001</v>
+        <v>1095937.17056</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1332351.71454</v>
+        <v>1540784.97221</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>811382.8813700001</v>
+        <v>973948.22155</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>990702.5808699999</v>
+        <v>1222008.24726</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1164995.13494</v>
+        <v>1295010.93132</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1460886.07423</v>
+        <v>1611677.64786</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2103339.78765</v>
+        <v>2250364.294999999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2371006.05432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2546915.18734</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1463298.806</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>209711.78036</v>
+        <v>246269.20363</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>445804.72398</v>
+        <v>561787.9183199999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>545322.253</v>
+        <v>598282.6488</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>770527.6381100001</v>
+        <v>823480.33728</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1102551.21584</v>
+        <v>1195375.47199</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>614129.8740699999</v>
+        <v>690779.98598</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>718090.0160500001</v>
+        <v>845421.70996</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>891476.1804099999</v>
+        <v>952480.7291199999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1154021.87163</v>
+        <v>1237975.26163</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1371644.11253</v>
+        <v>1456408.61974</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1525422.28603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1525590.10773</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>947612.062</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12738.42731</v>
+        <v>10006.03049</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>12811.20627</v>
+        <v>11720.76328</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2851.16265</v>
+        <v>2383.16572</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8504.75625</v>
+        <v>5088.48385</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31187.29757</v>
+        <v>19170.35688</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6270.704819999999</v>
+        <v>14582.61659</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>18394.29342</v>
+        <v>14938.17807</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>26957.22758</v>
+        <v>17501.09392</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>17087.19968</v>
+        <v>2540.24546</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>12230.54229</v>
+        <v>11620.59417</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>36709.58854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>33113.72993</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>51138.929</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>11438.44711</v>
+        <v>9507.064470000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>23343.15734</v>
+        <v>25071.77615</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>40223.77465</v>
+        <v>43557.66261</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>35254.3375</v>
+        <v>34455.32367000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>649192.4281899998</v>
+        <v>660461.80654</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>66819.95408</v>
+        <v>70736.39809999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>46791.7989</v>
+        <v>63688.57408</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>139684.35371</v>
+        <v>137880.83899</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>251662.82254</v>
+        <v>248284.17988</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>81332.53189999999</v>
+        <v>126239.16369</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>149755.36178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>98012.63565000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>124967.178</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>185505.99094</v>
+        <v>226727.19367</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>409363.61435</v>
+        <v>524302.19502</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>500839.27996</v>
+        <v>551653.28173</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>726213.5062000001</v>
+        <v>783572.9777899999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>421763.82262</v>
+        <v>504152.12016</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>540991.12994</v>
+        <v>605412.88606</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>650789.49634</v>
+        <v>764680.5304200001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>723775.2509399999</v>
+        <v>796841.6147</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>882865.42822</v>
+        <v>986511.10428</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1273335.30454</v>
+        <v>1314885.01865</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1338296.96747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1393809.22816</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>767037.9179999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>28.915</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>286.74602</v>
+        <v>693.18387</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1408.03574</v>
+        <v>688.53874</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>555.0381600000001</v>
+        <v>363.55197</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>407.66746</v>
+        <v>11591.18841</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>48.08523</v>
@@ -1478,100 +1449,115 @@
         <v>2114.42739</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1059.34818</v>
+        <v>257.18151</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2406.42119</v>
+        <v>639.7320100000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4745.7338</v>
+        <v>3663.84323</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>660.36824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>654.51399</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4468.037</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>80921.89087</v>
+        <v>95025.80932000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>145229.11352</v>
+        <v>153692.78036</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>142780.07642</v>
+        <v>230347.53798</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>215823.34316</v>
+        <v>272456.83328</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>229800.4987</v>
+        <v>345409.50022</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>197253.0073</v>
+        <v>283168.23557</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>272612.56482</v>
+        <v>376586.5373</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>273518.95453</v>
+        <v>342530.2022</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>306864.2026</v>
+        <v>373702.3862299999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>731695.67512</v>
+        <v>793955.67526</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>845583.7682899999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1021325.07961</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>515686.744</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>98026.69762000001</v>
+        <v>144586.01647</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>160224.06501</v>
+        <v>257225.62919</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>160889.2366</v>
+        <v>307059.47207</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>215593.91568</v>
+        <v>263946.79259</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>222913.99168</v>
+        <v>309249.10824</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>265045.36475</v>
+        <v>324714.5107999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>314122.9929400001</v>
+        <v>410696.20312</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>342917.56894</v>
+        <v>443816.8403400001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>326626.54461</v>
+        <v>391317.76367</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>695693.45432</v>
+        <v>778609.5880399999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>828653.91363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>973052.61089</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>751659.179</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,227 +1592,257 @@
       <c r="M21" s="48" t="n">
         <v>5621.32311</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>23907.34944</v>
+        <v>23691.94654</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>49191.76506000001</v>
+        <v>50624.27363</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>35239.14271</v>
+        <v>36641.25131</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>49373.22521</v>
+        <v>57789.72981</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>39502.53689</v>
+        <v>48457.96796000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>36373.95243</v>
+        <v>45517.50324</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>27130.66809</v>
+        <v>50279.49939</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>59457.36924000001</v>
+        <v>67431.83511</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>63414.12862999999</v>
+        <v>69098.01892</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>226090.63236</v>
+        <v>224111.70088</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>266328.86293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>270332.44651</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>210969.842</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>74119.34818</v>
+        <v>120894.06993</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>111032.29995</v>
+        <v>206601.35556</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>125621.65374</v>
+        <v>270389.78061</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>166220.69047</v>
+        <v>206157.06278</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>183411.45479</v>
+        <v>260791.14028</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>228627.45371</v>
+        <v>279153.04895</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>286992.32485</v>
+        <v>360416.70373</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>283457.57343</v>
+        <v>376382.3789600001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>254658.69656</v>
+        <v>313666.02533</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>463162.20035</v>
+        <v>548057.2655499999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>556703.72759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>697098.84127</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>540689.336</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-17104.80675</v>
+        <v>-49560.20715000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-14994.95149</v>
+        <v>-103532.84883</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-18109.16018</v>
+        <v>-76711.93409000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>229.4274800000001</v>
+        <v>8510.040690000002</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6886.507019999999</v>
+        <v>36160.39198000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-67792.35744999998</v>
+        <v>-41546.27523</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-41510.42812</v>
+        <v>-34109.66581999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-69398.61441000001</v>
+        <v>-101286.63814</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-19762.34201</v>
+        <v>-17615.37744</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>36002.22080000001</v>
+        <v>15346.08722000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>16929.85466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>48272.46872</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-235972.435</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>42048.59277</v>
+        <v>79540.91561999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>19129.96102</v>
+        <v>110573.69644</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>26878.55045</v>
+        <v>68128.73265999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>43192.81433</v>
+        <v>85730.96849000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>34803.18268</v>
+        <v>80942.34323</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>46455.28242</v>
+        <v>69335.76246</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>74400.45914000001</v>
+        <v>84514.30702000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>111338.87824</v>
+        <v>197387.1237</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>73509.86033</v>
+        <v>217998.16152</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>326358.37194</v>
+        <v>601611.48227</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>146399.24441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>373325.22839</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>927270.004</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>2688.25018</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>2544.53714</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>2846.97757</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>155.53629</v>
+        <v>4413.55767</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>456.6387</v>
+        <v>7749.59666</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>696.72101</v>
+        <v>4863.8649</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>348.2175</v>
+        <v>6119.00101</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>491.8299699999999</v>
+        <v>7292.77677</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1635.09393</v>
+        <v>5671.877219999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>639.5631999999999</v>
+        <v>3505.75008</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8732.32055</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13732.782</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>252.74715</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>142.5458</v>
+        <v>151.66494</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>123.33749</v>
+        <v>260.01377</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>43.32906</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>3558.32998</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>16</v>
+        <v>504.40581</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,224 +1856,254 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>5354.32872</v>
+        <v>7351.36117</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4800.07281</v>
+        <v>8186.798070000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3756.248810000001</v>
+        <v>10360.17756</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5560.584849999999</v>
+        <v>7276.017200000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5664.63917</v>
+        <v>5814.05447</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9915.466</v>
+        <v>10587.3976</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9465.23177</v>
+        <v>13086.97458</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7402.23874</v>
+        <v>19010.38951</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>12613.24403</v>
+        <v>27001.2417</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>37751.10261</v>
+        <v>47745.94665</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>29184.17058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>94499.29652</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>167678.924</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>86.81406</v>
+        <v>21.63475</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>952.9627500000001</v>
+        <v>939.4236599999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>355.33834</v>
+        <v>611.58014</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>277.5991</v>
+        <v>287.49765</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>339.69311</v>
+        <v>508.35557</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>63.88642</v>
+        <v>1715.7405</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>66.32142999999999</v>
+        <v>163.49324</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>12250.84145</v>
+        <v>12234.5242</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>54.83681</v>
+        <v>30730.20773</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3289.04062</v>
+        <v>3285.85964</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>79.72576000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>131.56501</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>98.946</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4929.17193</v>
+        <v>5114.025820000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>159.06296</v>
+        <v>26189.11845</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5037.93827</v>
+        <v>326.86449</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4981.936220000001</v>
+        <v>25995.65629</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>188.2363</v>
+        <v>688.1602800000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>445.67269</v>
+        <v>2755.94254</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>469.2072900000001</v>
+        <v>2097.8181</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1405.8355</v>
+        <v>2615.58521</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1017.01506</v>
+        <v>3394.321</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2464.23296</v>
+        <v>3286.22103</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4416.237720000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7327.66785</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8906.191999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>129.24442</v>
+        <v>132.82107</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>265.57817</v>
+        <v>264.61854</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>544.3476899999999</v>
+        <v>8286.453670000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>677.6104099999999</v>
+        <v>351.27603</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>146.08162</v>
+        <v>150.02544</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>442.6140799999999</v>
+        <v>806.7932499999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1754.29558</v>
+        <v>1410.04207</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>406.80017</v>
+        <v>839.57125</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>540.1219699999999</v>
+        <v>1102.88413</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1665.49802</v>
+        <v>13953.37113</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3483.18965</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1972.12013</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>33977.044</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6855.850820000001</v>
+        <v>26863.07608</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6335.84864</v>
+        <v>23076.62903</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>7590.39619</v>
+        <v>17809.58466</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>12457.70459</v>
+        <v>22904.65804</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>10075.99487</v>
+        <v>17166.01432</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>14900.26687</v>
+        <v>23912.04286</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>41635.73092</v>
+        <v>41753.26455000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>47301.94305</v>
+        <v>82389.79199</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>39201.41824</v>
+        <v>130941.86426</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>213633.41262</v>
+        <v>431377.11438</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>64224.83089999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>214849.9971</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>560188.248</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>24.11085</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>4.67655</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>6.316</v>
+        <v>16.03504</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>8.317</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>10.15513</v>
+        <v>26.16153</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>948.4955699999999</v>
+        <v>957.05057</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0.74215</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>33.83647</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>131.062</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>24440.43567</v>
+        <v>37345.63570000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6473.889889999999</v>
+        <v>49216.23006</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9464.62766</v>
+        <v>27611.04576</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>19073.52587</v>
+        <v>24450.65955</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>17921.74378</v>
+        <v>45281.64498</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19042.15978</v>
+        <v>23736.93024</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>20644.7125</v>
+        <v>19378.56551</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>42075.62557</v>
+        <v>73000.72098</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>18448.13029</v>
+        <v>19155.76548</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>66402.74890999999</v>
+        <v>97944.44636</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>44977.25333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>45778.42475999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>142556.806</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>9544.11486</v>
+        <v>34662.75217</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>9518.73381</v>
+        <v>40753.19665000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14172.26561</v>
+        <v>41013.98428</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>15071.48112</v>
+        <v>30456.25459</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>22505.26629</v>
+        <v>49847.85010000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19822.44722</v>
+        <v>39181.08153</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>44688.53483</v>
+        <v>78820.48106999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>49076.52697</v>
+        <v>57450.42046</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>57626.68998</v>
+        <v>130001.98245</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>295785.42631</v>
+        <v>419914.769</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>105793.56552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>137521.62026</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>277460.969</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>945.3828400000001</v>
+        <v>1997.22127</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>623.3928400000001</v>
+        <v>858.58335</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>689.09402</v>
+        <v>703.77378</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>636.96837</v>
+        <v>970.38923</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>513.20853</v>
+        <v>1164.68078</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>320.4358</v>
+        <v>305.34465</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>572.99373</v>
+        <v>462.5992199999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>825.19464</v>
+        <v>817.9517099999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>376.40098</v>
+        <v>635.0755</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>923.0599599999999</v>
+        <v>1619.43541</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2925.05495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5745.11793</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6198.299</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>309.15047</v>
+        <v>1208.65782</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>416.2361599999999</v>
+        <v>925.52262</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1178.45959</v>
+        <v>12234.07808</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>866.68199</v>
+        <v>2159.67577</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1480.23057</v>
+        <v>3125.91651</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2341.21438</v>
+        <v>6998.481670000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3020.18221</v>
+        <v>6110.43011</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3172.09582</v>
+        <v>5004.03604</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>10322.2391</v>
+        <v>16351.55085</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>7322.84482</v>
+        <v>9670.887279999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>12996.24912</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>16336.1825</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>16223.503</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,79 +2361,89 @@
         <v>97.03469</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1.5743</v>
+        <v>1.6618</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2082.07952</v>
+        <v>0.17475</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0.8765299999999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>427.73779</v>
+        <v>0.12653</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>100.38796</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6516.831830000001</v>
+        <v>22248.79746</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6815.623300000001</v>
+        <v>30159.39192</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>11370.33886</v>
+        <v>20150.1762</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11660.07295</v>
+        <v>18316.08209</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>16140.0975</v>
+        <v>41703.49612</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>14896.16864</v>
+        <v>30226.35008</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>34804.78159000001</v>
+        <v>42608.8026</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>41870.42477</v>
+        <v>48167.43137</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>43650.6827</v>
+        <v>111908.49368</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>258882.79704</v>
+        <v>373584.76037</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>84174.09557999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>101604.12706</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>249158.407</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>4.67655</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>9.719040000000001</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>2.373</v>
@@ -2366,7 +2452,7 @@
         <v>6.631399999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>7.89288</v>
+        <v>22.81088</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>85.35472999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>651.5786400000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>174.223</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>113.66548</v>
+        <v>771.1864399999999</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,374 +2516,424 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1772.74972</v>
+        <v>9203.399069999998</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1645.05121</v>
+        <v>8781.549419999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>834.96545</v>
+        <v>7826.54853</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1899.55211</v>
+        <v>9001.8143</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3423.23412</v>
+        <v>2890.33437</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2179.27367</v>
+        <v>1565.5504</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4093.95503</v>
+        <v>29523.93164</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3094.26973</v>
+        <v>2688.93837</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2849.62941</v>
+        <v>1106.73589</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>28483.30349</v>
+        <v>34765.87697999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5046.58723</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13184.61413</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5706.537</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13884.62628</v>
+        <v>28531.5419</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>12230.78071</v>
+        <v>31272.31568</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>17480.07569</v>
+        <v>39488.07104000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>24594.9442</v>
+        <v>33263.26953</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>30898.06416</v>
+        <v>97010.22435999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>31563.96667</v>
+        <v>79793.29513999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>46500.94444</v>
+        <v>72841.10063999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>52437.24529</v>
+        <v>171245.03578</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>46342.34651</v>
+        <v>108901.47956</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>98760.10945999999</v>
+        <v>398731.85104</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>89830.30086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>339240.9721</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>769661.236</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11471.04372</v>
+        <v>26692.32085</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>10922.66414</v>
+        <v>24242.00231</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>15892.13268</v>
+        <v>26446.01151</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>22668.32566</v>
+        <v>29402.22591</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>28709.41914</v>
+        <v>55149.78275</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>29417.40359</v>
+        <v>43826.52307</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>42881.20140999999</v>
+        <v>67498.37193000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>46956.17898</v>
+        <v>71143.06093000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>42591.26337000001</v>
+        <v>68324.15418</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>86986.85921</v>
+        <v>167689.85851</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>81019.64903999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>154079.57064</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>554932.9669999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2413.58256</v>
+        <v>1839.22105</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1308.11657</v>
+        <v>7030.313369999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1587.94301</v>
+        <v>13042.05953</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1926.61854</v>
+        <v>3861.04362</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2188.64502</v>
+        <v>41860.44161</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2146.56308</v>
+        <v>35966.77207</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3619.74303</v>
+        <v>5342.72871</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5481.066309999999</v>
+        <v>100101.97485</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3751.08314</v>
+        <v>40577.32537999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>11773.25025</v>
+        <v>231041.99253</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8810.651820000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>185161.40146</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>214728.269</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1515.044879999999</v>
+        <v>-33213.58559999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-17614.50499</v>
+        <v>-64984.66472</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-22882.95103</v>
+        <v>-89085.25675000002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3755.81649</v>
+        <v>30521.48506</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-11713.64075</v>
+        <v>-29755.33925</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-72723.48892</v>
+        <v>-91184.88944</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-58299.44825</v>
+        <v>-101256.94051</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-59573.50843000001</v>
+        <v>-132594.97068</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-50221.51817</v>
+        <v>-38520.67793</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-32184.94303000001</v>
+        <v>-201689.05055</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-32294.76731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-55164.89525</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-355824.636</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7437.85959</v>
+        <v>8959.71773</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10016.54364</v>
+        <v>30492.14781</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8926.022849999999</v>
+        <v>21387.55607</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>21300.38514</v>
+        <v>9990.96826</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8503.610570000001</v>
+        <v>9869.44399</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>12052.31944</v>
+        <v>15717.81211</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10783.30358</v>
+        <v>13098.21748</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>10033.74473</v>
+        <v>184080.89492</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>15974.17958</v>
+        <v>28287.71215</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>22018.25924</v>
+        <v>31694.08217</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>75919.57118000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1547299.76229</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>35576.498</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>46.09842</v>
+        <v>32.15986</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>8.56082</v>
+        <v>34.94518</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>173.13985</v>
+        <v>197.35555</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>52.69105</v>
+        <v>475.712</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>33.32862</v>
+        <v>18.582</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>41.03106</v>
+        <v>33.50899</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>502.9096</v>
+        <v>37.09401</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>27.39886</v>
+        <v>27.18088</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>596.5968099999999</v>
+        <v>27.76929</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>94.82653000000001</v>
+        <v>321.13429</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>710.2003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2961.0457</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3.373</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7391.76117</v>
+        <v>8927.557869999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10007.98282</v>
+        <v>30457.20263</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8752.883</v>
+        <v>21190.20052</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>21247.69409</v>
+        <v>9515.25626</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8470.281949999999</v>
+        <v>9850.861989999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>12011.28838</v>
+        <v>15684.30312</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10280.39398</v>
+        <v>13061.12347</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>10006.34587</v>
+        <v>184053.71404</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>15377.58277</v>
+        <v>28259.94286</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>21923.43271</v>
+        <v>31372.94788</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>75209.37088</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1544338.71659</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>35573.125</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5136.720979999999</v>
+        <v>10987.97472</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8246.355089999999</v>
+        <v>16410.12466</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>26394.85886</v>
+        <v>25200.44175</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>16084.69651</v>
+        <v>15725.15823</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12035.61925</v>
+        <v>12547.90451</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26604.66338</v>
+        <v>28702.86391</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>21297.81867</v>
+        <v>20400.80617</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>27326.76576</v>
+        <v>31243.96553</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13854.00808</v>
+        <v>15231.60272</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>35721.41611</v>
+        <v>39360.59243</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14137.46872</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>18178.87579</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24441.037</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>482.54588</v>
+        <v>185.04165</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>381.80689</v>
+        <v>7.94379</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1190.16732</v>
+        <v>0.92683</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>705.09907</v>
+        <v>3.9239</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
@@ -2801,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>106.71508</v>
+        <v>102.77081</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>15.96929</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1075.29666</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2470.249</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>701.8371</v>
+        <v>151.09997</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>771.83269</v>
+        <v>1816.2576</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>456.65874</v>
+        <v>549.6233899999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2962.17164</v>
+        <v>1677.81006</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>652.8787000000001</v>
+        <v>715.71001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1120.3734</v>
+        <v>1120.42092</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>419.93653</v>
+        <v>1104.93498</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>725.2453300000001</v>
+        <v>2502.94071</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2319.68567</v>
+        <v>2577.73136</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>313.14169</v>
+        <v>2335.18785</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>468.55096</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2565.23721</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>707.944</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3952.338</v>
+        <v>10651.8331</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7092.71551</v>
+        <v>14585.92327</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>24748.0328</v>
+        <v>24649.89153</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>12417.4258</v>
+        <v>14043.42427</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11382.74055</v>
+        <v>11832.1945</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>25484.28998</v>
+        <v>27582.44299</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>20771.16706</v>
+        <v>19193.10038</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>26585.55114</v>
+        <v>28741.02482</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10459.02575</v>
+        <v>12653.87136</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>35408.27442</v>
+        <v>37025.40457999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13668.91776</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>15613.63858</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>21262.844</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3816.183489999999</v>
+        <v>-35241.84259</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-15844.31644</v>
+        <v>-50902.64157000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-40351.78704</v>
+        <v>-92898.14243000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8971.505120000002</v>
+        <v>24787.29509</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-15245.64942999999</v>
+        <v>-32433.79977000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-87275.83286000001</v>
+        <v>-104169.94124</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-68813.96334</v>
+        <v>-108559.5292</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-76866.52946000001</v>
+        <v>20241.95871</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-48101.34667</v>
+        <v>-25464.5685</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-45888.09990000001</v>
+        <v>-209355.56081</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>29487.33515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1473955.99125</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-344689.175</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5087.77807</v>
+        <v>9802.703389999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5156.71941</v>
+        <v>9942.783370000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4105.89765</v>
+        <v>7740.08152</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6685.01183</v>
+        <v>9740.10773</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>11423.18743</v>
+        <v>14439.40024</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>8143.35447</v>
+        <v>16379.37986</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11532.20363</v>
+        <v>12661.99059</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>10342.71313</v>
+        <v>11300.98722</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>14833.09256</v>
+        <v>21020.68815</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>44836.87504000001</v>
+        <v>52526.61845</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>38347.2434</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>47121.82729</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>33175.051</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1271.594579999999</v>
+        <v>-45044.54598</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-21001.03585</v>
+        <v>-60845.42494</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-44457.68468999999</v>
+        <v>-100638.22395</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2286.49329</v>
+        <v>15047.18736</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-26668.83686</v>
+        <v>-46873.20001000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-95419.18733</v>
+        <v>-120549.3211</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-80346.16697000001</v>
+        <v>-121221.51979</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-87209.24259000001</v>
+        <v>8940.971489999998</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-62934.43923</v>
+        <v>-46485.25665</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-90724.97494</v>
+        <v>-261882.17926</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-8859.90825</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1426834.16396</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-377864.226</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>101</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>131</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>111</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>